--- a/src/main/java/com/dotcom/keyword/scenarios/Test_Scenarios.xlsx
+++ b/src/main/java/com/dotcom/keyword/scenarios/Test_Scenarios.xlsx
@@ -5,34 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roobini.bu\Desktop\mydocs\Automaiton updated smb and res\NewKeyWordEngineProject-master\src\main\java\com\dotcom\keyword\scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roobini.bu\Desktop\Automaiton updated smb and res backup\NewKeyWordEngineProject-master\src\main\java\com\dotcom\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MasterSheet" sheetId="15" r:id="rId1"/>
     <sheet name="objectRepository" sheetId="12" r:id="rId2"/>
     <sheet name="SmbLinksRepository" sheetId="20" r:id="rId3"/>
-    <sheet name="Microsite UQual" sheetId="23" r:id="rId4"/>
-    <sheet name="UQual" sheetId="24" r:id="rId5"/>
-    <sheet name="SMB_MyAccount" sheetId="21" r:id="rId6"/>
-    <sheet name="VOIP_Y" sheetId="27" r:id="rId7"/>
-    <sheet name="VOIP_M" sheetId="28" r:id="rId8"/>
-    <sheet name="SMB_Fiber" sheetId="29" r:id="rId9"/>
-    <sheet name="SMB_Cable" sheetId="30" r:id="rId10"/>
-    <sheet name="SMB_Fixedwireless" sheetId="31" r:id="rId11"/>
-    <sheet name="SMB_Copper" sheetId="33" r:id="rId12"/>
-    <sheet name="SMB_Simple" sheetId="32" r:id="rId13"/>
-    <sheet name="SMB_Complex" sheetId="34" r:id="rId14"/>
-    <sheet name="SMB_Bundle" sheetId="17" r:id="rId15"/>
-    <sheet name="SMB_InternetOnly" sheetId="19" r:id="rId16"/>
-    <sheet name="SMB_VoiceOnly_VOIP_N" sheetId="18" r:id="rId17"/>
-    <sheet name="BusinessPageRepository" sheetId="2" r:id="rId18"/>
-    <sheet name="SMB_Header" sheetId="22" r:id="rId19"/>
-    <sheet name="SMBSearch" sheetId="25" r:id="rId20"/>
-    <sheet name="SMBFooter" sheetId="26" r:id="rId21"/>
+    <sheet name="LiveChatSMB" sheetId="35" r:id="rId4"/>
+    <sheet name="Microsite UQual" sheetId="23" r:id="rId5"/>
+    <sheet name="UQual" sheetId="24" r:id="rId6"/>
+    <sheet name="SMB_MyAccount" sheetId="21" r:id="rId7"/>
+    <sheet name="VOIP_Y" sheetId="27" r:id="rId8"/>
+    <sheet name="VOIP_M" sheetId="28" r:id="rId9"/>
+    <sheet name="SMB_Fiber" sheetId="29" r:id="rId10"/>
+    <sheet name="SMB_Cable" sheetId="30" r:id="rId11"/>
+    <sheet name="SMB_Fixedwireless" sheetId="31" r:id="rId12"/>
+    <sheet name="SMB_Copper" sheetId="33" r:id="rId13"/>
+    <sheet name="SMB_Simple" sheetId="32" r:id="rId14"/>
+    <sheet name="SMB_Complex" sheetId="34" r:id="rId15"/>
+    <sheet name="SMB_Bundle" sheetId="17" r:id="rId16"/>
+    <sheet name="SMB_InternetOnly" sheetId="19" r:id="rId17"/>
+    <sheet name="SMB_VoiceOnly_VOIP_N" sheetId="18" r:id="rId18"/>
+    <sheet name="BusinessPageRepository" sheetId="2" r:id="rId19"/>
+    <sheet name="SMB_Header" sheetId="22" r:id="rId20"/>
+    <sheet name="SMBSearch" sheetId="25" r:id="rId21"/>
+    <sheet name="SMBFooter" sheetId="26" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="324">
   <si>
     <t>test step</t>
   </si>
@@ -1006,6 +1007,30 @@
   </si>
   <si>
     <t>SMB_VoiceOnly_VOIP_N</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>GREYBAR-NB</t>
+  </si>
+  <si>
+    <t>GREYBAR-BUS</t>
+  </si>
+  <si>
+    <t>ChatButton</t>
+  </si>
+  <si>
+    <t>NAV to contact-us</t>
+  </si>
+  <si>
+    <t>NON-BUS Text</t>
+  </si>
+  <si>
+    <t>NAV to chat window</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1185,20 +1210,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,8 +1255,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1331,6 +1363,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1349,7 +1396,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1536,7 +1583,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1557,6 +1604,16 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1882,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2188,6 +2245,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" customWidth="1"/>
+    <col min="3" max="6" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -2390,7 +2652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -2605,13 +2867,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D14"/>
+    <hyperlink ref="D14" display="Test%Test%2314567890%rajkumar.r@prodapt.com%Test%123456789%TestTest%I have read and agree to the Terms &amp; Conditions for services and/or equipment purchased through Windstream. I understand the limitations of the voice service. By clicking Place Order, I a"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2817,7 +3079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3023,7 +3285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3067,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
@@ -3095,7 +3357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
@@ -3179,7 +3441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="124.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="44" t="s">
         <v>125</v>
       </c>
@@ -3193,7 +3455,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="124.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="44" t="s">
         <v>87</v>
       </c>
@@ -3207,7 +3469,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44" t="s">
         <v>88</v>
       </c>
@@ -3229,7 +3491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3434,7 +3696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3625,7 +3887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3814,7 +4076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -4016,237 +4278,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="16.4140625" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" customWidth="1"/>
-    <col min="4" max="4" width="29.4140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4740,6 +4771,237 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="16.4140625" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1"/>
+    <col min="4" max="4" width="29.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -4884,7 +5146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -5201,6 +5463,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5500,7 +5827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -5849,7 +6176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5925,7 +6252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -6462,18 +6789,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D14"/>
-    <hyperlink ref="D25"/>
+    <hyperlink ref="D14" display="Test%Test%2314567890%rajkumar.r@prodapt.com%Test%123456789%TestTest%I have read and agree to the Terms &amp; Conditions for services and/or equipment purchased through Windstream. I understand the limitations of the voice service. By clicking Place Order, I a"/>
+    <hyperlink ref="D25" display="Test%Test%2314567890%rajkumar.r@prodapt.com%Test%123456789%TestTest%I have read and agree to the Terms &amp; Conditions for services and/or equipment purchased through Windstream. I understand the limitations of the voice service. By clicking Place Order, I a"/>
     <hyperlink ref="D16" r:id="rId2"/>
     <hyperlink ref="D28" r:id="rId3"/>
-    <hyperlink ref="D37"/>
+    <hyperlink ref="D37" display="Test%Test%2314567890%rajkumar.r@prodapt.com%Test%123456789%TestTest%I have read and agree to the Terms &amp; Conditions for services and/or equipment purchased through Windstream. I understand the limitations of the voice service. By clicking Place Order, I a"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -6968,216 +7295,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D13"/>
+    <hyperlink ref="D13" display="Test,Test,2314567890,rajkumar.r@prodapt.com,Test,123456789,TestTest"/>
     <hyperlink ref="D15" r:id="rId2"/>
     <hyperlink ref="D26" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="25.58203125" customWidth="1"/>
-    <col min="3" max="6" width="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/com/dotcom/keyword/scenarios/Test_Scenarios.xlsx
+++ b/src/main/java/com/dotcom/keyword/scenarios/Test_Scenarios.xlsx
@@ -9,31 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MasterSheet" sheetId="15" r:id="rId1"/>
     <sheet name="objectRepository" sheetId="12" r:id="rId2"/>
     <sheet name="SmbLinksRepository" sheetId="20" r:id="rId3"/>
     <sheet name="LiveChatSMB" sheetId="35" r:id="rId4"/>
-    <sheet name="Microsite UQual" sheetId="23" r:id="rId5"/>
-    <sheet name="UQual" sheetId="24" r:id="rId6"/>
-    <sheet name="SMB_MyAccount" sheetId="21" r:id="rId7"/>
-    <sheet name="VOIP_Y" sheetId="27" r:id="rId8"/>
-    <sheet name="VOIP_M" sheetId="28" r:id="rId9"/>
-    <sheet name="SMB_Fiber" sheetId="29" r:id="rId10"/>
-    <sheet name="SMB_Cable" sheetId="30" r:id="rId11"/>
-    <sheet name="SMB_Fixedwireless" sheetId="31" r:id="rId12"/>
-    <sheet name="SMB_Copper" sheetId="33" r:id="rId13"/>
-    <sheet name="SMB_Simple" sheetId="32" r:id="rId14"/>
-    <sheet name="SMB_Complex" sheetId="34" r:id="rId15"/>
-    <sheet name="SMB_Bundle" sheetId="17" r:id="rId16"/>
-    <sheet name="SMB_InternetOnly" sheetId="19" r:id="rId17"/>
-    <sheet name="SMB_VoiceOnly_VOIP_N" sheetId="18" r:id="rId18"/>
-    <sheet name="BusinessPageRepository" sheetId="2" r:id="rId19"/>
-    <sheet name="SMB_Header" sheetId="22" r:id="rId20"/>
-    <sheet name="SMBSearch" sheetId="25" r:id="rId21"/>
-    <sheet name="SMBFooter" sheetId="26" r:id="rId22"/>
+    <sheet name="LiveChatTC" sheetId="36" r:id="rId5"/>
+    <sheet name="Microsite UQual" sheetId="23" r:id="rId6"/>
+    <sheet name="UQual" sheetId="24" r:id="rId7"/>
+    <sheet name="SMB_MyAccount" sheetId="21" r:id="rId8"/>
+    <sheet name="VOIP_Y" sheetId="27" r:id="rId9"/>
+    <sheet name="VOIP_M" sheetId="28" r:id="rId10"/>
+    <sheet name="SMB_Fiber" sheetId="29" r:id="rId11"/>
+    <sheet name="SMB_Cable" sheetId="30" r:id="rId12"/>
+    <sheet name="SMB_Fixedwireless" sheetId="31" r:id="rId13"/>
+    <sheet name="SMB_Copper" sheetId="33" r:id="rId14"/>
+    <sheet name="SMB_Simple" sheetId="32" r:id="rId15"/>
+    <sheet name="SMB_Complex" sheetId="34" r:id="rId16"/>
+    <sheet name="SMB_Bundle" sheetId="17" r:id="rId17"/>
+    <sheet name="SMB_InternetOnly" sheetId="19" r:id="rId18"/>
+    <sheet name="SMB_VoiceOnly_VOIP_N" sheetId="18" r:id="rId19"/>
+    <sheet name="BusinessPageRepository" sheetId="2" r:id="rId20"/>
+    <sheet name="SMB_Header" sheetId="22" r:id="rId21"/>
+    <sheet name="SMBSearch" sheetId="25" r:id="rId22"/>
+    <sheet name="SMBFooter" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="346">
   <si>
     <t>test step</t>
   </si>
@@ -1012,32 +1013,98 @@
     <t>URL</t>
   </si>
   <si>
-    <t>GREYBAR-NB</t>
-  </si>
-  <si>
-    <t>GREYBAR-BUS</t>
-  </si>
-  <si>
-    <t>ChatButton</t>
-  </si>
-  <si>
-    <t>NAV to contact-us</t>
-  </si>
-  <si>
-    <t>NON-BUS Text</t>
-  </si>
-  <si>
-    <t>NAV to chat window</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>Non Bus Hour Status</t>
+  </si>
+  <si>
+    <t>Bus Hour Status</t>
+  </si>
+  <si>
+    <t>https://business.windstream.com/fiber-internet</t>
+  </si>
+  <si>
+    <t>LiveChat</t>
+  </si>
+  <si>
+    <t>Business Chat Link</t>
+  </si>
+  <si>
+    <t>URL Name</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Fiber Internet</t>
+  </si>
+  <si>
+    <t>LiveChatTC</t>
+  </si>
+  <si>
+    <t>//a[text()='Begin Chat ']%( //p[@class=' para_desc vertical'])[1]</t>
+  </si>
+  <si>
+    <t>ChatBusinessHours</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>business.windstream.com/Products</t>
+  </si>
+  <si>
+    <t>business.windstream.com/internet-service</t>
+  </si>
+  <si>
+    <t>business.windstream.com/voice-services</t>
+  </si>
+  <si>
+    <t>business.windstream.com/security</t>
+  </si>
+  <si>
+    <t>business.windstream.com/business-solutions</t>
+  </si>
+  <si>
+    <t>business.windstream.com/small-and-medium-business-solutions</t>
+  </si>
+  <si>
+    <t>business.windstream.com/business-needs</t>
+  </si>
+  <si>
+    <t>business.windstream.com/resources</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>internet-service</t>
+  </si>
+  <si>
+    <t>voice-services</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>business-solutions</t>
+  </si>
+  <si>
+    <t>small-and-medium-business-solutions</t>
+  </si>
+  <si>
+    <t>business-needs</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>Non-BusinesshourPass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1223,6 +1290,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1262,7 +1336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1363,21 +1437,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1396,7 +1455,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1609,11 +1668,17 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1937,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2232,6 +2297,20 @@
         <v>313</v>
       </c>
       <c r="D18" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2243,17 +2322,521 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="25.58203125" customWidth="1"/>
-    <col min="3" max="6" width="41" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.58203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.9140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D13" display="Test,Test,2314567890,rajkumar.r@prodapt.com,Test,123456789,TestTest"/>
+    <hyperlink ref="D15" r:id="rId2"/>
+    <hyperlink ref="D26" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.58203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="6" width="41" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2422,212 +3005,6 @@
       </c>
       <c r="D12" s="41" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="38.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2654,18 +3031,224 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.9140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.83203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2873,20 +3456,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.9140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.58203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3058,212 +3641,6 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44" t="s">
         <v>88</v>
       </c>
@@ -3289,16 +3666,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.08203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.9140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3329,7 +3706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
@@ -3368,7 +3745,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3396,7 +3773,7 @@
         <v>73</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3452,7 +3829,7 @@
         <v>126</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.4">
@@ -3466,7 +3843,7 @@
         <v>112</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3492,6 +3869,212 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.9140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3696,7 +4279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3887,7 +4470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4076,7 +4659,503 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="62.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="71.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.6640625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="58"/>
+    </row>
+    <row r="3" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="58"/>
+    </row>
+    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="58"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="58"/>
+    </row>
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="58"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="58"/>
+    </row>
+    <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="58"/>
+    </row>
+    <row r="9" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="58"/>
+    </row>
+    <row r="10" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="58"/>
+    </row>
+    <row r="11" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="58"/>
+    </row>
+    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="58"/>
+    </row>
+    <row r="13" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="58"/>
+    </row>
+    <row r="14" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="58"/>
+    </row>
+    <row r="15" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="58"/>
+    </row>
+    <row r="16" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="58"/>
+    </row>
+    <row r="17" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="58"/>
+    </row>
+    <row r="18" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="58"/>
+    </row>
+    <row r="19" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="58"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="58"/>
+    </row>
+    <row r="21" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="58"/>
+    </row>
+    <row r="22" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="58"/>
+    </row>
+    <row r="23" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="58"/>
+    </row>
+    <row r="24" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="58"/>
+    </row>
+    <row r="25" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="58"/>
+    </row>
+    <row r="26" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="58"/>
+    </row>
+    <row r="27" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="58"/>
+    </row>
+    <row r="28" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="58"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="58"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="58"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="58"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="58"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="58"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="58"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="58"/>
+    </row>
+    <row r="36" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="58"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="58"/>
+    </row>
+    <row r="38" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="58"/>
+    </row>
+    <row r="39" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="58"/>
+    </row>
+    <row r="40" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="58"/>
+    </row>
+    <row r="41" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="58"/>
+    </row>
+    <row r="42" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="58"/>
+    </row>
+    <row r="43" spans="1:3" ht="155" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="58"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -4281,495 +5360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="62.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="71.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="58"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="58"/>
-    </row>
-    <row r="3" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="58"/>
-    </row>
-    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="58"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="58"/>
-    </row>
-    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="58"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="58"/>
-    </row>
-    <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="58"/>
-    </row>
-    <row r="9" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="58"/>
-    </row>
-    <row r="10" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="58"/>
-    </row>
-    <row r="11" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="58"/>
-    </row>
-    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="58"/>
-    </row>
-    <row r="13" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="58"/>
-    </row>
-    <row r="14" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="58"/>
-    </row>
-    <row r="15" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="58"/>
-    </row>
-    <row r="16" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="58"/>
-    </row>
-    <row r="17" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="58"/>
-    </row>
-    <row r="18" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="58"/>
-    </row>
-    <row r="19" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="58"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="58"/>
-    </row>
-    <row r="21" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="58"/>
-    </row>
-    <row r="22" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="58"/>
-    </row>
-    <row r="23" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="58"/>
-    </row>
-    <row r="24" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="58"/>
-    </row>
-    <row r="25" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="58"/>
-    </row>
-    <row r="26" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="58"/>
-    </row>
-    <row r="27" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="58"/>
-    </row>
-    <row r="28" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="58"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="58"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" s="58"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="58"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="58"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="58"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="58"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="58"/>
-    </row>
-    <row r="36" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="58"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C37" s="58"/>
-    </row>
-    <row r="38" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C38" s="58"/>
-    </row>
-    <row r="39" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" s="58"/>
-    </row>
-    <row r="40" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C40" s="58"/>
-    </row>
-    <row r="41" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" s="58"/>
-    </row>
-    <row r="42" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="58"/>
-    </row>
-    <row r="43" spans="1:3" ht="155" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" s="58"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="93" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4779,10 +5370,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="16.4140625" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" customWidth="1"/>
-    <col min="4" max="4" width="29.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.4140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.4140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -5000,7 +5591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -5010,9 +5601,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="25.4140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -5146,7 +5737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -5156,10 +5747,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.58203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -5286,14 +5877,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -5463,64 +6054,144 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.4140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.08203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.08203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="C1" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="D1" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="78" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>319</v>
-      </c>
-      <c r="H1" s="79" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" t="s">
-        <v>323</v>
+      <c r="C4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://business.windstream.com/voice-services"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://business.windstream.com/security"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://business.windstream.com/business-solutions"/>
+    <hyperlink ref="B10" r:id="rId5" display="https://business.windstream.com/small-and-medium-business-solutions"/>
+    <hyperlink ref="B11" r:id="rId6" display="https://business.windstream.com/business-needs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5528,298 +6199,186 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>16</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5828,6 +6387,307 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="79.4140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -5837,10 +6697,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -6176,7 +7036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -6186,9 +7046,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="28.58203125" customWidth="1"/>
+    <col min="1" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.58203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -6252,20 +7112,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="39.4140625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.4140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -6758,7 +7618,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>87</v>
       </c>
@@ -6772,7 +7632,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>88</v>
       </c>
@@ -6782,7 +7642,7 @@
       <c r="C37" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="81" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6793,511 +7653,7 @@
     <hyperlink ref="D25" display="Test%Test%2314567890%rajkumar.r@prodapt.com%Test%123456789%TestTest%I have read and agree to the Terms &amp; Conditions for services and/or equipment purchased through Windstream. I understand the limitations of the voice service. By clicking Place Order, I a"/>
     <hyperlink ref="D16" r:id="rId2"/>
     <hyperlink ref="D28" r:id="rId3"/>
-    <hyperlink ref="D37" display="Test%Test%2314567890%rajkumar.r@prodapt.com%Test%123456789%TestTest%I have read and agree to the Terms &amp; Conditions for services and/or equipment purchased through Windstream. I understand the limitations of the voice service. By clicking Place Order, I a"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="32.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.9140625" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D13" display="Test,Test,2314567890,rajkumar.r@prodapt.com,Test,123456789,TestTest"/>
-    <hyperlink ref="D15" r:id="rId2"/>
-    <hyperlink ref="D26" r:id="rId3"/>
+    <hyperlink ref="D37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
